--- a/Paper/Movie/data/三块广告牌豆瓣影评T.xlsx
+++ b/Paper/Movie/data/三块广告牌豆瓣影评T.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\Project200723\Paper\Movie\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DB2C23-8213-4951-881A-B27C1C346DDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA53A57F-DDF7-49BD-BD4F-B0426FFC79FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4280" uniqueCount="1743">
   <si>
     <t>评分</t>
   </si>
@@ -3073,6 +3073,2190 @@
   </si>
   <si>
     <t>德国/奥地利/法国/意大利</t>
+  </si>
+  <si>
+    <t>9331</t>
+  </si>
+  <si>
+    <t>人类</t>
+  </si>
+  <si>
+    <t>你的今天和我的明天TomorrowComesToday</t>
+  </si>
+  <si>
+    <t>美丽梦中人</t>
+  </si>
+  <si>
+    <t>杜布罗夫斯基杜布罗夫斯基/复仇艳遇</t>
+  </si>
+  <si>
+    <t>英格兰末日英格兰末日/英伦末日</t>
+  </si>
+  <si>
+    <t>吉祥如意TheReunions</t>
+  </si>
+  <si>
+    <t>甜蜜的生活甜蜜的生活/露滴牡丹开(港)</t>
+  </si>
+  <si>
+    <t>千钧一发千钧一发/变种异煞(港)</t>
+  </si>
+  <si>
+    <t>隐秘的角落坏小孩</t>
+  </si>
+  <si>
+    <t>头痛欲裂头痛欲裂/HeadBurst</t>
+  </si>
+  <si>
+    <t>英国/西德</t>
+  </si>
+  <si>
+    <t>4664</t>
+  </si>
+  <si>
+    <t>征途DoubleWorld</t>
+  </si>
+  <si>
+    <t>契克契克/再见柏林(港/台)</t>
+  </si>
+  <si>
+    <t>大怪扎</t>
+  </si>
+  <si>
+    <t>史酷比狗史酷比狗/史酷比大电影</t>
+  </si>
+  <si>
+    <t>杰克·怀特霍尔：我只是在开玩笑杰克·怀特霍尔：我只是在开玩笑/JackWhitehall：講笑啫（港）</t>
+  </si>
+  <si>
+    <t>4937</t>
+  </si>
+  <si>
+    <t>死亡半径死亡半径/索命半径</t>
+  </si>
+  <si>
+    <t>副本第一季副本/碳变(港/台)</t>
+  </si>
+  <si>
+    <t>黑雨黑雨/原子劫</t>
+  </si>
+  <si>
+    <t>清白清白/洁白</t>
+  </si>
+  <si>
+    <t>叶问3YipMan3</t>
+  </si>
+  <si>
+    <t>性生活</t>
+  </si>
+  <si>
+    <t>棋魂棋魂/光之棋</t>
+  </si>
+  <si>
+    <t>全职猎人全职猎人/猎人</t>
+  </si>
+  <si>
+    <t>叶问4：完结篇叶问4：完结篇/叶问4</t>
+  </si>
+  <si>
+    <t>5589</t>
+  </si>
+  <si>
+    <t>安全至下安全至下/最后安全</t>
+  </si>
+  <si>
+    <t>看好你的车看好你的车/小心车</t>
+  </si>
+  <si>
+    <t>租房惊魂租房惊魂/致命窥弑(台)</t>
+  </si>
+  <si>
+    <t>办公室的故事办公室的故事/OfficeRomance</t>
+  </si>
+  <si>
+    <t>船长二世船长二世/小比尔号汽船</t>
+  </si>
+  <si>
+    <t>2962</t>
+  </si>
+  <si>
+    <t>茧茧/Cocoon</t>
+  </si>
+  <si>
+    <t>贵妇失踪记贵妇失踪记/失踪的女人</t>
+  </si>
+  <si>
+    <t>爱德华大夫爱德华大夫/意乱情迷</t>
+  </si>
+  <si>
+    <t>香火Incense</t>
+  </si>
+  <si>
+    <t>别对映像研出手！别对映像研出手！/KeepYourHandsOffEizouken！</t>
+  </si>
+  <si>
+    <t>身份流亡身份流亡/Exile</t>
+  </si>
+  <si>
+    <t>耶稣指引你上高速</t>
+  </si>
+  <si>
+    <t>我的妹妹我的妹妹/MyLittleSister</t>
+  </si>
+  <si>
+    <t>天堂以南天堂以南/SouthOfHeaven</t>
+  </si>
+  <si>
+    <t>鹿朗吉鹿朗吉/Rūrangi</t>
+  </si>
+  <si>
+    <t>德国/比利时/科索沃</t>
+  </si>
+  <si>
+    <t>西班牙/爱沙尼亚/埃塞俄比亚/拉脱维亚/罗马尼亚</t>
+  </si>
+  <si>
+    <t>新西兰</t>
+  </si>
+  <si>
+    <t>2753</t>
+  </si>
+  <si>
+    <t>爱情生活第一季</t>
+  </si>
+  <si>
+    <t>死亡诗篇死亡诗篇/他的兄弟</t>
+  </si>
+  <si>
+    <t>布朗克斯的故事布朗克斯的故事/四海情深</t>
+  </si>
+  <si>
+    <t>纽约医生日记第一季</t>
+  </si>
+  <si>
+    <t>维多利亚时代的人们维多利亚时代的人们/画作中的维多利亚</t>
+  </si>
+  <si>
+    <t>灰猎犬号灰猎犬号/怒海战舰(台)</t>
+  </si>
+  <si>
+    <t>海洋奇缘海洋奇缘/莫阿娜</t>
+  </si>
+  <si>
+    <t>上载新生第一季上载新生/上传</t>
+  </si>
+  <si>
+    <t>母亲母亲/骨肉同谋(港)</t>
+  </si>
+  <si>
+    <t>绝夜逢生第一季绝夜逢生第一季/向黑夜进发</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>1306</t>
+  </si>
+  <si>
+    <t>Jose与虎与鱼们Jose与虎与鱼们/Jozee、老虎、鱼儿们</t>
+  </si>
+  <si>
+    <t>闭锁病房闭锁病房/ClosedWard</t>
+  </si>
+  <si>
+    <t>口罩猎人口罩猎人：中国商人林栋的全球采买故事</t>
+  </si>
+  <si>
+    <t>开心家族开心家族/开心鬼上身</t>
+  </si>
+  <si>
+    <t>花牌情缘：结花牌情缘：结/花牌情缘：终结</t>
+  </si>
+  <si>
+    <t>帕克帕克/轰天复仇(港)</t>
+  </si>
+  <si>
+    <t>辉夜大小姐想让我告白：天才们的恋爱头脑战第一季辉夜大小姐想让我告白：天才们的恋爱头脑战第一季/辉夜姬想让人告白天才们的恋爱头脑战</t>
+  </si>
+  <si>
+    <t>夏目友人帐夏目友人帐/夏目友人帐：结缘空蝉</t>
+  </si>
+  <si>
+    <t>人生果实人生果实/积存时间的生活(台)</t>
+  </si>
+  <si>
+    <t>穿越大吉岭穿越大吉岭/大吉利是有限公司(港)</t>
+  </si>
+  <si>
+    <t>2018-02-25</t>
+  </si>
+  <si>
+    <t>我对生活从无迷信，为何对女儿的诅咒却一语成谶？我以为世间应有上帝，奈何却被邪佞玩弄股掌。没人告诉女人在丈夫自尽后的一天该做什么，也没人知道母亲在女儿奸杀后的半生能做什么。在血色晚霞里涂上殷红的广告牌，它早晚会在烈火里被遗弃。幸好在斑驳之前，每个经过它的人都看过上面狰狞的字，正义。</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>江苏苏州</t>
+  </si>
+  <si>
+    <t>xilouchen</t>
+  </si>
+  <si>
+    <t>当男人恋爱时当男人恋爱时/不标准情人(台)</t>
+  </si>
+  <si>
+    <t>日子Days</t>
+  </si>
+  <si>
+    <t>曼克曼克/曼凯</t>
+  </si>
+  <si>
+    <t>信条信条/TENET天能(港/台)</t>
+  </si>
+  <si>
+    <t>波兰电影波兰电影/PolishFilm</t>
+  </si>
+  <si>
+    <t>琼斯先生琼斯先生/普立兹记者(台)</t>
+  </si>
+  <si>
+    <t>美食、祈祷和恋爱美食、祈祷和恋爱/享受吧！一个人的旅行(台)</t>
+  </si>
+  <si>
+    <t>我脑中的橡皮擦我脑中的橡皮擦/我脑海中的橡皮擦</t>
+  </si>
+  <si>
+    <t>爱情是什么爱情是什么/爱是什么</t>
+  </si>
+  <si>
+    <t>一首小夜曲一首小夜曲/小小夜曲(台)</t>
+  </si>
+  <si>
+    <t>美国/英国</t>
+  </si>
+  <si>
+    <t>捷克/波兰</t>
+  </si>
+  <si>
+    <t>波兰/英国/乌克兰</t>
+  </si>
+  <si>
+    <t>2373</t>
+  </si>
+  <si>
+    <t>暗数杀人暗数杀人/黑数杀人</t>
+  </si>
+  <si>
+    <t>巴特拉尔传说草原小英雄</t>
+  </si>
+  <si>
+    <t>黑鱼</t>
+  </si>
+  <si>
+    <t>白桦林中的哨所</t>
+  </si>
+  <si>
+    <t>都挺好AllisWell</t>
+  </si>
+  <si>
+    <t>汉密尔顿汉密尔顿/汉密尔顿音乐剧</t>
+  </si>
+  <si>
+    <t>浪潮</t>
+  </si>
+  <si>
+    <t>我是唱作人第二季我是唱作人2</t>
+  </si>
+  <si>
+    <t>蛇之拥抱蛇之拥抱/与蛇共舞(港)</t>
+  </si>
+  <si>
+    <t>哥伦比亚/委内瑞拉/阿根廷</t>
+  </si>
+  <si>
+    <t>2736</t>
+  </si>
+  <si>
+    <t>紧急呼救第一季紧急呼救/紧急救援</t>
+  </si>
+  <si>
+    <t>离经叛道离经叛道/出走布鲁克林(台)</t>
+  </si>
+  <si>
+    <t>小小巴黎厨房小小巴黎厨房/花都美女廚房(港)</t>
+  </si>
+  <si>
+    <t>我的小马驹：友谊大魔法第一季我的小马驹：友谊大魔法/我的小马驹:友谊的魔力</t>
+  </si>
+  <si>
+    <t>春风沉醉的夜晚春风沉醉的晚上</t>
+  </si>
+  <si>
+    <t>亚当亚当/亚当不好当</t>
+  </si>
+  <si>
+    <t>那年夏天，宁静的海那年夏天，宁静的海/那年夏天最宁静的海</t>
+  </si>
+  <si>
+    <t>HighKick短腿的反击HighKick短腿的反击/搞笑一家人第三部</t>
+  </si>
+  <si>
+    <t>笑傲江湖</t>
+  </si>
+  <si>
+    <t>顺流逆流顺流逆流/TimeandTide</t>
+  </si>
+  <si>
+    <t>937</t>
+  </si>
+  <si>
+    <t>无依之地</t>
+  </si>
+  <si>
+    <t>这时对那时错这时对那时错/错恋(台)</t>
+  </si>
+  <si>
+    <t>追击者追击者/TheChaser</t>
+  </si>
+  <si>
+    <t>年轻人的音乐会：霍尔斯特《行星组曲》</t>
+  </si>
+  <si>
+    <t>四月是你的谎言四月是你的谎言/YourLieinApril</t>
+  </si>
+  <si>
+    <t>天才嘉年华2天才嘉年华2/ジーニアス・パーティ・ビヨンド</t>
+  </si>
+  <si>
+    <t>午夜福音</t>
+  </si>
+  <si>
+    <t>圣安娜奇迹圣安娜奇迹</t>
+  </si>
+  <si>
+    <t>美国/意大利</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>乐队的夏天第二季乐队的夏天2</t>
+  </si>
+  <si>
+    <t>釜山行2：半岛釜山行2：半岛/釜山行2</t>
+  </si>
+  <si>
+    <t>暑假暑假/SummaryVacation</t>
+  </si>
+  <si>
+    <t>运动吧少年</t>
+  </si>
+  <si>
+    <t>家怨家怨/我的家(台)</t>
+  </si>
+  <si>
+    <t>砂之器砂之器/TheCastleofSand</t>
+  </si>
+  <si>
+    <t>猎鹿人猎鹿人/越战猎鹿人(台)</t>
+  </si>
+  <si>
+    <t>浪荡儿浪荡儿/小牛(台)</t>
+  </si>
+  <si>
+    <t>孩子不想理解孩子不想理解/不让孩子知道</t>
+  </si>
+  <si>
+    <t>刑法典第375条</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>纪念品纪念品/我们的相爱时光(台)</t>
+  </si>
+  <si>
+    <t>马丁·伊登马丁·伊登/马丁伊登(台)</t>
+  </si>
+  <si>
+    <t>火口的两人火口的两人/火口的二人(台)</t>
+  </si>
+  <si>
+    <t>春天情书春天情书/Haru</t>
+  </si>
+  <si>
+    <t>默片解说员默片解说员/王牌辩士(台)</t>
+  </si>
+  <si>
+    <t>福尔摩斯二世福尔摩斯二世/小私家侦探</t>
+  </si>
+  <si>
+    <t>银河英雄传说：新战争的序曲银河英雄传说：新战争的序曲/LegendoftheGalacticHeroes:OverturetoaNewWar</t>
+  </si>
+  <si>
+    <t>美国/墨西哥</t>
+  </si>
+  <si>
+    <t>意大利/法国/德国</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>大卫·伯恩的美国乌托邦大卫·伯恩的美国乌托邦/美国乌托邦</t>
+  </si>
+  <si>
+    <t>85年盛夏85年盛夏/八五盛夏</t>
+  </si>
+  <si>
+    <t>#活着#活着/独行</t>
+  </si>
+  <si>
+    <t>再见，我的灵魂伴侣再见，我的灵魂伴侣/七月与安生韩版</t>
+  </si>
+  <si>
+    <t>怪你过分美丽BlameYouTooBeautiful</t>
+  </si>
+  <si>
+    <t>河神河神之魔古道</t>
+  </si>
+  <si>
+    <t>粉雄救兵第五季粉雄救兵/改造直男</t>
+  </si>
+  <si>
+    <t>爱你，维克托爱你，维克托/爱你，西蒙(剧版)</t>
+  </si>
+  <si>
+    <t>第一头牛第一头牛/初生之犊(台)</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>风的电话风的电话/风之电话</t>
+  </si>
+  <si>
+    <t>华灯初上</t>
+  </si>
+  <si>
+    <t>熊镇熊镇/Beartown</t>
+  </si>
+  <si>
+    <t>亲爱的房客亲爱的房客/DearTenant</t>
+  </si>
+  <si>
+    <t>心之全蚀心之全蚀/全蚀狂爱</t>
+  </si>
+  <si>
+    <t>性之剧毒性之剧毒/性之剧药</t>
+  </si>
+  <si>
+    <t>老人与狗OldManAndHisDog</t>
+  </si>
+  <si>
+    <t>英国/法国/比利时</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>皮肤：电影的裸露历史</t>
+  </si>
+  <si>
+    <t>解放黑奴</t>
+  </si>
+  <si>
+    <t>铁雨2：首脑峰会铁雨2：首脑峰会/铁雨2：首脑会谈</t>
+  </si>
+  <si>
+    <t>日本沉没2020日本沉没2020/JapanSinks:2020</t>
+  </si>
+  <si>
+    <t>吉祥AFinalReunion</t>
+  </si>
+  <si>
+    <t>修容镇TheTown</t>
+  </si>
+  <si>
+    <t>落地生AnchorBaby</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>极度恐慌极度恐慌/极度惊慌(港)</t>
+  </si>
+  <si>
+    <t>卡桑德拉大桥卡桑德拉大桥/飞越夺命桥</t>
+  </si>
+  <si>
+    <t>失翼灵雀失翼灵雀/被拴住的云雀</t>
+  </si>
+  <si>
+    <t>三国志：英雄的黎明三国志：英雄的黎明/三国志:英雄的黎明</t>
+  </si>
+  <si>
+    <t>西游记老版西游记</t>
+  </si>
+  <si>
+    <t>皮肤之下LifeUnderMySkin</t>
+  </si>
+  <si>
+    <t>英国/意大利/西德</t>
+  </si>
+  <si>
+    <t>1742</t>
+  </si>
+  <si>
+    <t>鲜花盛开的村庄鲜花盛开的村庄/BloomingFlowersVillages</t>
+  </si>
+  <si>
+    <t>前三前三/Top3</t>
+  </si>
+  <si>
+    <t>有史以来卖得最好的电影有史以来卖得最好的电影/史上最卖座电影</t>
+  </si>
+  <si>
+    <t>生活与命运生活与命运/Zhiznisudba</t>
+  </si>
+  <si>
+    <t>我想结束这一切</t>
+  </si>
+  <si>
+    <t>老郭梦工厂UncleGuo'sWorkDreams</t>
+  </si>
+  <si>
+    <t>云阳HisLand</t>
+  </si>
+  <si>
+    <t>四月PiecesofApril</t>
+  </si>
+  <si>
+    <t>硬币硬币/TheCoin</t>
+  </si>
+  <si>
+    <t>少年阿尧GrowingPains</t>
+  </si>
+  <si>
+    <t>朝鲜</t>
+  </si>
+  <si>
+    <t>中国大陆/日本</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>小生护驾小生护驾/拉郎配2</t>
+  </si>
+  <si>
+    <t>血鹦鹉BloodyParrot</t>
+  </si>
+  <si>
+    <t>难兄难弟难兄难弟/MyIntimatePartner</t>
+  </si>
+  <si>
+    <t>沉默的拥抱沉默的拥抱</t>
+  </si>
+  <si>
+    <t>雷雨Thunderstorm</t>
+  </si>
+  <si>
+    <t>祝福NewYearSacrifice</t>
+  </si>
+  <si>
+    <t>一条狗的死亡</t>
+  </si>
+  <si>
+    <t>心愿房间心愿房间/嚇・房(港)</t>
+  </si>
+  <si>
+    <t>美国/中国大陆/日本</t>
+  </si>
+  <si>
+    <t>阿根廷/法国/乌拉圭</t>
+  </si>
+  <si>
+    <t>法国/卢森堡/比利时</t>
+  </si>
+  <si>
+    <t>1590</t>
+  </si>
+  <si>
+    <t>玉面情魔玉面情魔/噩梦巷</t>
+  </si>
+  <si>
+    <t>隐形人隐形人/隐身人</t>
+  </si>
+  <si>
+    <t>族裔负担</t>
+  </si>
+  <si>
+    <t>茜宝茜宝/四面受敌</t>
+  </si>
+  <si>
+    <t>助理助理/女助理</t>
+  </si>
+  <si>
+    <t>澳大利亚/美国/加拿大/英国</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>伞学院第一季伞学院/雨伞学院</t>
+  </si>
+  <si>
+    <t>大欺诈师大欺诈师/诈骗之王</t>
+  </si>
+  <si>
+    <t>ChelseaPeretti:OneoftheGreats</t>
+  </si>
+  <si>
+    <t>誓血五人组誓血五人组/五滴血</t>
+  </si>
+  <si>
+    <t>车道尽头的海洋</t>
+  </si>
+  <si>
+    <t>炎炎消防队</t>
+  </si>
+  <si>
+    <t>咒怨：诅咒之家咒怨：诅咒之家/咒怨之始(港/台)</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>安妮特</t>
+  </si>
+  <si>
+    <t>英格力士English</t>
+  </si>
+  <si>
+    <t>桃色血案桃色血案/一个凶杀案的解析</t>
+  </si>
+  <si>
+    <t>侯麦：铁证如山侯麦：铁证如山</t>
+  </si>
+  <si>
+    <t>纽伦堡的审判纽伦堡的审判/纽伦堡大审判</t>
+  </si>
+  <si>
+    <t>那个我最亲爱的陌生人那个我最亲爱的陌生人/TheBelovedStranger</t>
+  </si>
+  <si>
+    <t>叔·叔SukSuk</t>
+  </si>
+  <si>
+    <t>法国/美国/墨西哥</t>
+  </si>
+  <si>
+    <t>2018-01-17</t>
+  </si>
+  <si>
+    <t>所有人物背景和关键剧情全都是强设定，真实人性的牌坊要立，黑色幽默的偶性又要加以利用，说到底就是一个为了反套路而不停抓耳挠腮设计反转，从创作动机到文本都虚情假意的大土鳖。</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>petercat</t>
+  </si>
+  <si>
+    <t>这题材太适合奥斯卡最佳影片了，完全贴合美国社会热点。人物和结尾写得不错，洛克威尔是目前为止我心目中的年度最佳男配。Burwell的配乐动人。但是麦克唐纳再次证明他是一个精于算计的戏剧编剧而不是一个优秀的电影导演。以及大家称赞群像表演时请把艾比·考尼什排除在外谢谢。</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>cabaret</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>新变种人新变种人/新异变人(港)</t>
+  </si>
+  <si>
+    <t>往事如烟往事如烟/初度玉门关</t>
+  </si>
+  <si>
+    <t>人间，空间，时间和人人间，空间，时间和人/畸欲伊甸园(港)</t>
+  </si>
+  <si>
+    <t>三角窗外是黑夜三角窗外是黑夜/Thenightbeyondthetricorneredwindow</t>
+  </si>
+  <si>
+    <t>借口公司借口公司/找借口有限公司(台)</t>
+  </si>
+  <si>
+    <t>极寒之城极寒之城/极冻之城(台)</t>
+  </si>
+  <si>
+    <t>狩猎狩猎/猎逃生死战(港)</t>
+  </si>
+  <si>
+    <t>无证之罪BurningIce</t>
+  </si>
+  <si>
+    <t>美国/德国/瑞典</t>
+  </si>
+  <si>
+    <t>2017-12-16</t>
+  </si>
+  <si>
+    <t>又一个最擅长“黑色幽默”的导演一不留神走火入魔的病例。当你讽刺到原本已足够荒诞而且压根儿不好笑的现实头上时，曾经好用的Absurdity就不再能轻易帮你解决一切问题了。玩弄观众的心理认同一点都不高明，最终勉强找对了方向，但密苏里到爱达荷实在太远了。</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>Chicago, United States</t>
+  </si>
+  <si>
+    <t>pigpearl</t>
+  </si>
+  <si>
+    <t>塔可夫斯基：在电影中祈祷塔可夫斯基：在电影中祈祷/塔可夫斯基：以电影之诗祈祷</t>
+  </si>
+  <si>
+    <t>若水若水/像水一样</t>
+  </si>
+  <si>
+    <t>最热的八月</t>
+  </si>
+  <si>
+    <t>拉腊拉腊/不爱钢琴师(台)</t>
+  </si>
+  <si>
+    <t>海紫海紫/紫色海</t>
+  </si>
+  <si>
+    <t>坠落</t>
+  </si>
+  <si>
+    <t>寂静的地球</t>
+  </si>
+  <si>
+    <t>歌剧红伶歌剧红伶</t>
+  </si>
+  <si>
+    <t>IlpassaggiodellalineaCrossingTheLine</t>
+  </si>
+  <si>
+    <t>狼的嘴狼的嘴/TheMouthoftheWolf</t>
+  </si>
+  <si>
+    <t>意大利/俄罗斯/瑞典</t>
+  </si>
+  <si>
+    <t>其实底色还是童话。但啥叫好剧本啊：每一步都在意料之外，又在情理之中；情节的翻转不硬拗，再小的一个角色，再少量的戏份，都有可信的行为、合理的动机。马丁.麦克唐纳一向擅长塑造群像小人物，演员们也集体交出了完美的演技，台词精炼毫无一个废字儿，情节秒秒钟牵动情绪，喜感又悲情，让你大笑着哭出眼泪。个人年度最佳。</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>荣格危机</t>
+  </si>
+  <si>
+    <t>悲惨世界：上演音乐会</t>
+  </si>
+  <si>
+    <t>菊石</t>
+  </si>
+  <si>
+    <t>赛博朋克：边缘跑手</t>
+  </si>
+  <si>
+    <t>空中小姐空中小姐/スチュワーデス物語</t>
+  </si>
+  <si>
+    <t>姿三四郎</t>
+  </si>
+  <si>
+    <t>乒乓乒乓/PingPongTheAnimation</t>
+  </si>
+  <si>
+    <t>空想新子和千年的魔法空想新子和千年的魔法/新子与千年魔法(台)</t>
+  </si>
+  <si>
+    <t>我们的七日战争我们的七日战争/疯狂翘课之七日大作战</t>
+  </si>
+  <si>
+    <t>非常一般，也不觉得剧本好，被安排的戏剧冲突过于刻意。整个事件的发生以及后续延展的推动力的逻辑支撑十分怪异，人物不真实，包括警察自杀、包括后面的Dixon的转变</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>Reykjavík, Iceland</t>
+  </si>
+  <si>
+    <t>zlqysct</t>
+  </si>
+  <si>
+    <t>东京奥林匹克东京奥林匹克/东京世运会</t>
+  </si>
+  <si>
+    <t>日日是好日每天都是好日子</t>
+  </si>
+  <si>
+    <t>我和我的家乡MyPeople,MyHometown</t>
+  </si>
+  <si>
+    <t>春江水暖DwellingintheFuchunMountains</t>
+  </si>
+  <si>
+    <t>三十而已NothingButThirty</t>
+  </si>
+  <si>
+    <t>我们由奇迹构成我们由奇迹构成/我们的奇迹</t>
+  </si>
+  <si>
+    <t>黑暗中发光的事物</t>
+  </si>
+  <si>
+    <t>亚洲铜</t>
+  </si>
+  <si>
+    <t>四叠半神话大系四叠半神话大系/四叠半宿舍，青春迷走</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>英国式丑闻第一季英国式丑闻/英式丑闻</t>
+  </si>
+  <si>
+    <t>我控诉我控诉/军官与间谍(台)</t>
+  </si>
+  <si>
+    <t>伴你高飞伴你高飞/返家十万里</t>
+  </si>
+  <si>
+    <t>触不可及(美版)触不可及(美版)/美版触不可及</t>
+  </si>
+  <si>
+    <t>去年圣诞去年圣诞/去年圣诞节(台)</t>
+  </si>
+  <si>
+    <t>布鲁克林秘案布鲁克林秘案/无母之城(港)</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>潮汕古惑仔：塘埔桥之战TheTaleofHeroesfromChaoshan:BattleatTangpuBridge</t>
+  </si>
+  <si>
+    <t>卖命小子卖命小子/TheMagnificentRuffians</t>
+  </si>
+  <si>
+    <t>浊水漂流Drifting</t>
+  </si>
+  <si>
+    <t>奇迹寻踪InCourseoftheMiraculous</t>
+  </si>
+  <si>
+    <t>网飞对抗全世界</t>
+  </si>
+  <si>
+    <t>洛城机密洛城机密/幕后嫌疑犯(港)</t>
+  </si>
+  <si>
+    <t>倩女幽魂TheEnchantingShadow</t>
+  </si>
+  <si>
+    <t>丹尼玫瑰丹尼玫瑰/百老汇的丹尼罗斯</t>
+  </si>
+  <si>
+    <t>星球大战前传2：克隆人的进攻星球大战前传2：克隆人的进攻/星球大战第二集：克隆人的进攻</t>
+  </si>
+  <si>
+    <t>中国香港/瑞士/中国大陆</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>蕾蒙娜和姐姐蕾蒙娜和姐姐/蕾梦娜和碧祖丝</t>
+  </si>
+  <si>
+    <t>非凡夏日非凡夏日/非常夏天(港)</t>
+  </si>
+  <si>
+    <t>魔鬼代言人魔鬼代言人/追魂交易(港)</t>
+  </si>
+  <si>
+    <t>梦女孩梦女孩/梦幻女郎</t>
+  </si>
+  <si>
+    <t>亲吻亭2亲吻亭2/亲亲小站2(港/台)</t>
+  </si>
+  <si>
+    <t>亲吻亭亲吻亭/接吻亭</t>
+  </si>
+  <si>
+    <t>在凶手的怀抱里</t>
+  </si>
+  <si>
+    <t>暴风雨的献祭暴风雨的献祭/巴斯坦三部曲之暴风雨的献祭</t>
+  </si>
+  <si>
+    <t>红樱桃RedCherry</t>
+  </si>
+  <si>
+    <t>荷兰/德国</t>
+  </si>
+  <si>
+    <t>美国/多米尼加</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>与神同行：罪与罚与神同行：罪与罚/与神同行</t>
+  </si>
+  <si>
+    <t>剧场版架空OL日记剧场版架空OL日记/FictitiousGirl'sDiary</t>
+  </si>
+  <si>
+    <t>架空OL日记</t>
+  </si>
+  <si>
+    <t>耀眼耀眼/如此耀眼</t>
+  </si>
+  <si>
+    <t>邮差邮差/末世邮差</t>
+  </si>
+  <si>
+    <t>一人露营一人露营/露营物语</t>
+  </si>
+  <si>
+    <t>燃烧女子的肖像燃烧女子的肖像/浴火的少女画像(港)</t>
+  </si>
+  <si>
+    <t>百万美元贵妇第一季百万美元贵妇/百万美国公主</t>
+  </si>
+  <si>
+    <t>可怕，又一个“正义联盟”。</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>babulliu</t>
+  </si>
+  <si>
+    <t>渔孩渔孩/TheFishChild</t>
+  </si>
+  <si>
+    <t>坏小子巴比坏小子巴比</t>
+  </si>
+  <si>
+    <t>海边电影院海边电影院/海边的映画馆</t>
+  </si>
+  <si>
+    <t>静悄悄的雨静悄悄的雨/静雨</t>
+  </si>
+  <si>
+    <t>精神0精神0/Seishin0</t>
+  </si>
+  <si>
+    <t>寅次郎的故事：欢迎归来寅次郎的故事：欢迎归来/男人之苦–寅次郎返嚟啦！(港)</t>
+  </si>
+  <si>
+    <t>捉迷藏捉迷藏/HideandSeek</t>
+  </si>
+  <si>
+    <t>就这样，彗星撞上了地球就这样，彗星撞上了地球/UNPOLLUTEDEGGS</t>
+  </si>
+  <si>
+    <t>苦水音乐苦水音乐/TaipeiBlues</t>
+  </si>
+  <si>
+    <t>刺客行ABigDeal</t>
+  </si>
+  <si>
+    <t>阿根廷/法国/西班牙</t>
+  </si>
+  <si>
+    <t>澳大利亚/意大利</t>
+  </si>
+  <si>
+    <t>丹麦/巴基斯坦</t>
+  </si>
+  <si>
+    <t>2017-12-09</t>
+  </si>
+  <si>
+    <t>麦克唐纳在黑色幽默和社会正剧之间摇摆不定，结果两边都没搞好。一部很好的颁奖季电影，不是一部好电影。</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>Calgary, Canada</t>
+  </si>
+  <si>
+    <t>guyuemuziye2</t>
+  </si>
+  <si>
+    <t>哆啦A梦：大雄的恐龙哆啦A梦：大雄的恐龙/Doraemon:Nobitanokyôryû</t>
+  </si>
+  <si>
+    <t>宇宙时空之旅宇宙时空之旅/宇宙：一场时空漫游</t>
+  </si>
+  <si>
+    <t>黑死病第一季黑死病/瘟疫</t>
+  </si>
+  <si>
+    <t>火星生活第一季火星生活/在别处第一季</t>
+  </si>
+  <si>
+    <t>捍卫雅各布捍卫雅各布/捍卫我儿(港)</t>
+  </si>
+  <si>
+    <t>舌尖上的中国第三季舌尖上的中国叁</t>
+  </si>
+  <si>
+    <t>火线第一季火线/警网(港)</t>
+  </si>
+  <si>
+    <t>白夜追凶白夜追凶第一季</t>
+  </si>
+  <si>
+    <t>谁是被害者谁是被害者/谁是被害者？</t>
+  </si>
+  <si>
+    <t>声不在高声不在高/Laforcedelaparole</t>
+  </si>
+  <si>
+    <t>在这世界的（还有更多的）角落在这世界的（还有更多的）角落/在这世界的角落加长版</t>
+  </si>
+  <si>
+    <t>佩尔德利佩尔德利/TheBareNecessity</t>
+  </si>
+  <si>
+    <t>美国商业大亨传奇美国商业大亨传奇/谁建造了美国</t>
+  </si>
+  <si>
+    <t>星际牛仔星际牛仔/赏金猎人</t>
+  </si>
+  <si>
+    <t>库布里克谈库布里克库布里克谈库布里克/库布里克论库布里克</t>
+  </si>
+  <si>
+    <t>再见朱平</t>
+  </si>
+  <si>
+    <t>美国之子美国之子/美国男孩(港)</t>
+  </si>
+  <si>
+    <t>2018-01-28</t>
+  </si>
+  <si>
+    <t>为了报仇发广告，冲冠一怒烧警局。如此政治不正确，已经难见又难得。</t>
+  </si>
+  <si>
+    <t>luhua</t>
+  </si>
+  <si>
+    <t>这！就是街舞第一季这就是街舞</t>
+  </si>
+  <si>
+    <t>魔法高校</t>
+  </si>
+  <si>
+    <t>美人皮聊斋之美人连城</t>
+  </si>
+  <si>
+    <t>坏心肠坏心肠/TheMalevolent</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>剧场版假面骑士时王OverQuartzer</t>
+  </si>
+  <si>
+    <t>利刃出鞘利刃出鞘/致命遗产</t>
+  </si>
+  <si>
+    <t>南方车站的聚会野鹅塘</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>蜘蛛的策略蜘蛛的策略/蜘蛛策略(港)</t>
+  </si>
+  <si>
+    <t>人渣的本愿人渣的本愿/人渣的本愿动画版</t>
+  </si>
+  <si>
+    <t>护航父母护航父母/围鸡总动员(台)</t>
+  </si>
+  <si>
+    <t>忘掉莎拉·马歇尔忘掉莎拉·马歇尔/忘掉负心女</t>
+  </si>
+  <si>
+    <t>两男变错身两男变错身/玩咖尬宅爸(台)</t>
+  </si>
+  <si>
+    <t>幻爱幻爱/BeyondtheDream</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>目无王法目无王法/反贪神捕</t>
+  </si>
+  <si>
+    <t>夜车NightTrain</t>
+  </si>
+  <si>
+    <t>遗落家庭遗落家庭/家灵(台)</t>
+  </si>
+  <si>
+    <t>我在原地等你RightHereWaitingForYou</t>
+  </si>
+  <si>
+    <t>法国/中国大陆</t>
+  </si>
+  <si>
+    <t>设下这么巧的一个局，最后落点如此轻飘飘？到头来居然有点被喂鸡汤的感觉......</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>ydyie</t>
+  </si>
+  <si>
+    <t>无名狂WildSwords</t>
+  </si>
+  <si>
+    <t>剧场剧场/Theatre</t>
+  </si>
+  <si>
+    <t>穿越火线CrossFire</t>
+  </si>
+  <si>
+    <t>家庭生活家庭生活</t>
+  </si>
+  <si>
+    <t>异教峰异教峰/圣峰之下</t>
+  </si>
+  <si>
+    <t>前程似锦的年轻女人前程似锦的年轻女人/花漾女子(台)</t>
+  </si>
+  <si>
+    <t>喋血战士喋血战士/血卫(台)</t>
+  </si>
+  <si>
+    <t>第一次的离别第一次告别</t>
+  </si>
+  <si>
+    <t>非我所愿非我所愿/这样不OK(台)</t>
+  </si>
+  <si>
+    <t>德国/奥地利</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>风筝Kite</t>
+  </si>
+  <si>
+    <t>黑暗弥漫黑暗弥漫/无光岁月(港)</t>
+  </si>
+  <si>
+    <t>坏女孩坏女孩/Why,Why,TellMeWhy?</t>
+  </si>
+  <si>
+    <t>回头见</t>
+  </si>
+  <si>
+    <t>五月之祭五月之祭/TheRitesofMay</t>
+  </si>
+  <si>
+    <t>双倍双倍/Dvojina</t>
+  </si>
+  <si>
+    <t>太阳太阳/TheSun</t>
+  </si>
+  <si>
+    <t>眼泪之盐眼泪之盐/Premièrechasse</t>
+  </si>
+  <si>
+    <t>登月荒言登月荒言/讲不出星(港)</t>
+  </si>
+  <si>
+    <t>管道</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>Slovenia|Denmark|Croa</t>
+  </si>
+  <si>
+    <t>印度尼西亚/马来西亚/法国</t>
+  </si>
+  <si>
+    <t>法国/哥伦比亚/巴西</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>互联网之子互联网之子/斯沃茨的故事(台)</t>
+  </si>
+  <si>
+    <t>我的镜头我的中国</t>
+  </si>
+  <si>
+    <t>我的灵魂是爱做的我的灵魂是爱做的/MySoulisMadeofLove</t>
+  </si>
+  <si>
+    <t>张素英的城堡ZhangSuying'sCastle</t>
+  </si>
+  <si>
+    <t>多力特的奇幻冒险多力特的奇幻冒险/怪医杜立德</t>
+  </si>
+  <si>
+    <t>乘风破浪的姐姐乘风破浪的姐姐们</t>
+  </si>
+  <si>
+    <t>好久不见，武汉LongTimeNoSee,Wuhan</t>
+  </si>
+  <si>
+    <t>美国/中国大陆/英国</t>
+  </si>
+  <si>
+    <t>日本/中国大陆</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>文学的日常</t>
+  </si>
+  <si>
+    <t>最后一封信最后一封信/你好之华日本版</t>
+  </si>
+  <si>
+    <t>通往北京的道路</t>
+  </si>
+  <si>
+    <t>爱情人偶爱情人偶/爱情人形(台)</t>
+  </si>
+  <si>
+    <t>隐姓亿万富翁隐姓亿万富翁/富豪谷底求翻身</t>
+  </si>
+  <si>
+    <t>博斯，梦幻花园博斯，梦幻花园/波西失乐园(台)</t>
+  </si>
+  <si>
+    <t>达利与迪斯尼：命运之约</t>
+  </si>
+  <si>
+    <t>意意/家乡的故事</t>
+  </si>
+  <si>
+    <t>血观音血观音/修罗花</t>
+  </si>
+  <si>
+    <t>走进比尔：解码比尔·盖茨走进比尔：解码比尔·盖茨/盖兹之道：疑难解法(台)</t>
+  </si>
+  <si>
+    <t>法国/西班牙</t>
+  </si>
+  <si>
+    <t>澳大利亚/新加坡</t>
+  </si>
+  <si>
+    <t>安详之兽安详之兽/TheGracefulBrute</t>
+  </si>
+  <si>
+    <t>超级的我奇幻之旅</t>
+  </si>
+  <si>
+    <t>熟女梦工厂熟女梦工厂/硬</t>
+  </si>
+  <si>
+    <t>公园日记ABrightSummerDiary</t>
+  </si>
+  <si>
+    <t>家庭式NoFlowersorSeasons</t>
+  </si>
+  <si>
+    <t>是非常好的电影，但其实一点也不丧，丧只是它的一个姿态，美国文化是青少年文化，骨子里还是阳光，有生命力，充满斗志的。三块广告牌之所以被评价这么高，就是因为它有丧的外表，但骨子里不丧，真正丧的东西，大家是受不了的。大家只是要这个丧丧的样子就好。</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>pinkonion</t>
+  </si>
+  <si>
+    <t>寻找薇薇安·迈尔</t>
+  </si>
+  <si>
+    <t>花样年华-生如夏花花样年华-生如夏花/花样年华-人生成为花的瞬间</t>
+  </si>
+  <si>
+    <t>异度侵入异度侵入/ID:Invaded</t>
+  </si>
+  <si>
+    <t>玛格丽特·阿特伍德：笔耕不辍是为力玛格丽特·阿特伍德：笔耕不辍是为力/玛格丽特·阿特伍德：书写的力量</t>
+  </si>
+  <si>
+    <t>夏目友人帐：曾几何时下雪之日夏目友人帐：曾几何时下雪之日/有朝一日暮雪时</t>
+  </si>
+  <si>
+    <t>爱，死亡和机器人第一季爱，死亡和机器人/爱x死x机器人(台)</t>
+  </si>
+  <si>
+    <t>想见你想见你/SomedayorOneDay</t>
+  </si>
+  <si>
+    <t>法制未来时法治未来时</t>
+  </si>
+  <si>
+    <t>悲喜怒情绪转场写的那么“尬”，一众演员还能演下去真是“演技惊人”，反转比本格推理小说还多真是难为导演兼编剧了，那您好歹解释下红脖子警长是咋娶到澳洲老婆的？把simple mind people写成一根筋的嘴贱傻子，唯一认理的两个警长一个死一个是黑人，真省事儿，就全当是在讽刺川普吧</t>
+  </si>
+  <si>
+    <t>yangshuangblue</t>
+  </si>
+  <si>
+    <t>蜘蛛侠：英雄远征蜘蛛侠：英雄远征/蜘蛛侠：决战千里(港)</t>
+  </si>
+  <si>
+    <t>父亲的森林父亲的森林/IntoDad'sWoods</t>
+  </si>
+  <si>
+    <t>大西洋壁垒大西洋壁垒/AtlanticWall</t>
+  </si>
+  <si>
+    <t>曼达洛人第一季曼达洛人/星球大战：曼达洛人</t>
+  </si>
+  <si>
+    <t>比利时/法国/瑞士</t>
+  </si>
+  <si>
+    <t>刺杀肯尼迪刺杀肯尼迪/惊天大刺杀(港)</t>
+  </si>
+  <si>
+    <t>吹哨人：美国体操队性侵丑闻追踪吹哨人：美国体操队性侵丑闻追踪/体操A级丑闻(港/台)</t>
+  </si>
+  <si>
+    <t>学区房72小时学区房83弄</t>
+  </si>
+  <si>
+    <t>77年航空港77年航空港/国际机场1977</t>
+  </si>
+  <si>
+    <t>贝尔戈维亚贝尔戈维亚/贝尔格莱维亚</t>
+  </si>
+  <si>
+    <t>守护者</t>
+  </si>
+  <si>
+    <t>在哥伦布在哥伦布/心灵筑动(港)</t>
+  </si>
+  <si>
+    <t>乔乔的异想世界乔乔的异想世界/乔乔兔</t>
+  </si>
+  <si>
+    <t>19171917：逆战救兵(港)</t>
+  </si>
+  <si>
+    <t>王国第二季王国/尸战朝鲜</t>
+  </si>
+  <si>
+    <t>美国/捷克/新西兰</t>
+  </si>
+  <si>
+    <t>美国/英国/印度/西班牙/加拿大</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>方形方形/方寸见人心(港)</t>
+  </si>
+  <si>
+    <t>狙击手的战争狙击手的战争/生死狙击</t>
+  </si>
+  <si>
+    <t>俄罗斯/美国/乌克兰</t>
+  </si>
+  <si>
+    <t>第三将来时第三将来时/别往心里去</t>
+  </si>
+  <si>
+    <t>斯隆女士斯隆女士/枪狂帝国(港)</t>
+  </si>
+  <si>
+    <t>歌手·当打之年歌手2020</t>
+  </si>
+  <si>
+    <t>否认否认/否定</t>
+  </si>
+  <si>
+    <t>南斯拉夫/法国/德国/保加利亚/捷克/匈牙利/英国/美国</t>
+  </si>
+  <si>
+    <t>2018-01-02</t>
+  </si>
+  <si>
+    <t>中西部压力锅版Olive Kitteridge，最后也确实突变成了Olive Kitteridge，连Frances McDormand勉力挤出的微笑都一模一样——这世界确实没什么好值得她高兴的。</t>
+  </si>
+  <si>
+    <t>CharlesChou</t>
+  </si>
+  <si>
+    <t>肮脏的爱情肮脏的爱情/NastyLove</t>
+  </si>
+  <si>
+    <t>冰肤传说冰肤传说/冷皮</t>
+  </si>
+  <si>
+    <t>风烛泪风烛泪/温别尔托D</t>
+  </si>
+  <si>
+    <t>绅士布朗科绅士布朗科/怪胎绅士</t>
+  </si>
+  <si>
+    <t>校塔枪击案校塔枪击案/塔楼</t>
+  </si>
+  <si>
+    <t>降世神通：科拉传奇第四季降世神通：科拉传奇/科拉传奇第四卷：平衡</t>
+  </si>
+  <si>
+    <t>降世神通：科拉传奇第三季降世神通：科拉传奇/科拉传奇第三卷：易</t>
+  </si>
+  <si>
+    <t>降世神通：科拉传奇第二季降世神通：科拉传奇/科拉传奇第二卷：神灵</t>
+  </si>
+  <si>
+    <t>大卫·科波菲尔的个人史大卫·科波菲尔的个人史/狄更斯之块肉余生记(台)</t>
+  </si>
+  <si>
+    <t>爱玛爱玛/EMMA：上流贵族(港)</t>
+  </si>
+  <si>
+    <t>西班牙/法国</t>
+  </si>
+  <si>
+    <t>美国/韩国/日本</t>
+  </si>
+  <si>
+    <t>3.5一个密西西比乡村的群像人性大戏，被拍成了想当然的黑色喜剧，宽恕与爱如此烂大街的主题，在嘲笑的同时又不可避免地去拥抱他们，每个人物都背负着秘密，害怕被揭开，却又在寻找替罪羊来解脱，但刻意设置的情节还是让人物愈加不真实，剧情转折地过于牵强，削弱了情感的力量，也就剩下表演救场了</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>guo_xu</t>
+  </si>
+  <si>
+    <t>无敌青春无敌青春/突破界限</t>
+  </si>
+  <si>
+    <t>谢尔曼的征程谢尔曼的征程/谢尔曼将军的征程</t>
+  </si>
+  <si>
+    <t>板球少年第二季</t>
+  </si>
+  <si>
+    <t>疯狂人生疯狂人生</t>
+  </si>
+  <si>
+    <t>日记1973-1983日记1973-1983/Diary</t>
+  </si>
+  <si>
+    <t>天狗TheForestRanger</t>
+  </si>
+  <si>
+    <t>姊妹情色姊妹情色/小胖妞思春</t>
+  </si>
+  <si>
+    <t>快乐的阿南快乐的阿南</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>2019-02-24</t>
+  </si>
+  <si>
+    <t>平和的，轻快的</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>185222478</t>
+  </si>
+  <si>
+    <t>转瞬之间</t>
+  </si>
+  <si>
+    <t>法国芭蕾舞学校日記法国芭蕾舞学校日記/BuddingStarsoftheParisOperaBallet</t>
+  </si>
+  <si>
+    <t>跨过边境的一步</t>
+  </si>
+  <si>
+    <t>随性自然——切利比达克的音乐哲学</t>
+  </si>
+  <si>
+    <t>指挥的艺术：以前的伟大指挥指挥的艺术：以前的伟大指挥/指挥的艺术</t>
+  </si>
+  <si>
+    <t>登堂入室登堂入室/偷恋隔篱妈(港)</t>
+  </si>
+  <si>
+    <t>四百击四百击/四百下</t>
+  </si>
+  <si>
+    <t>宿敌：贝蒂和琼第一季宿敌：贝蒂和琼/世仇</t>
+  </si>
+  <si>
+    <t>我杀了我妈妈我杀了我妈妈/杀死我阿妈(港)</t>
+  </si>
+  <si>
+    <t>英国病人英国病人/别问我是谁(港)</t>
+  </si>
+  <si>
+    <t>德国/瑞士</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>我，花样女王我，花样女王/冰之骄女(港)</t>
+  </si>
+  <si>
+    <t>信笺故事</t>
+  </si>
+  <si>
+    <t>侠女侠女/灵山剑影</t>
+  </si>
+  <si>
+    <t>血疑血疑/赤的疑惑</t>
+  </si>
+  <si>
+    <t>走向共和满清末代王朝(台)</t>
+  </si>
+  <si>
+    <t>好莱坞好莱坞/荷里活(港)</t>
+  </si>
+  <si>
+    <t>十面埋伏HouseofFlyingDaggers</t>
+  </si>
+  <si>
+    <t>焦土之城焦土之城/烈火焚身(台)</t>
+  </si>
+  <si>
+    <t>南国野兽南国野兽/南方的野兽</t>
+  </si>
+  <si>
+    <t>真心半解真心半解/青春未知数(台)</t>
+  </si>
+  <si>
+    <t>英国/美国/卡塔尔</t>
+  </si>
+  <si>
+    <t>中国台湾/中国香港</t>
+  </si>
+  <si>
+    <t>我是女王TheQueens</t>
+  </si>
+  <si>
+    <t>掌中之物TheControllers</t>
+  </si>
+  <si>
+    <t>毛骗终结篇MoralPeanuts</t>
+  </si>
+  <si>
+    <t>机智医生生活机智医生生活/机智的医生生活</t>
+  </si>
+  <si>
+    <t>这个男人是我人生中最大的错误这个男人是我人生中最大的错误/这个男人是人生最大的过错</t>
+  </si>
+  <si>
+    <t>珠光宝气珠光宝气/TheGemofLife</t>
+  </si>
+  <si>
+    <t>尸人庄杀人事件尸人庄杀人事件/尸人庄谜案</t>
+  </si>
+  <si>
+    <t>老房有喜表妹吉祥</t>
+  </si>
+  <si>
+    <t>我，克劳迪乌斯我，克劳迪乌斯/罗马帝国兴亡史</t>
+  </si>
+  <si>
+    <t>塔奇克马的日常塔奇克马的日常/攻壳机动队：塔奇克马的日常</t>
+  </si>
+  <si>
+    <t>比利小子比利小子/大丈夫与小人物(港)</t>
+  </si>
+  <si>
+    <t>雷霆剑闪电刀雷霆剑闪电刀/APreciousSword,AknifeofThunder</t>
+  </si>
+  <si>
+    <t>南部军南部军/PartisansofSouthKorea</t>
+  </si>
+  <si>
+    <t>龙先生龙先生/Mr.Long</t>
+  </si>
+  <si>
+    <t>罗马帝国沦亡录罗马帝国沦亡录</t>
+  </si>
+  <si>
+    <t>阿尔忒弥斯酒店阿尔忒弥斯酒店/绝命酒店(港)</t>
+  </si>
+  <si>
+    <t>日本/中国香港/中国台湾</t>
+  </si>
+  <si>
+    <t>一大半的时间里，除了土埋半截到忍无可忍自尽的威洛比，全部主角和一半以上配角都像中学上不到一半就不念了的混混儿一样使劲挑事儿，不作好像浑身难受似的。一个议题的价值就是这么用来消耗的吗？</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>sunshtlaolian</t>
+  </si>
+  <si>
+    <t>移魂女郎移魂女郎/女生向前走(台)</t>
+  </si>
+  <si>
+    <t>紧急救援TheRescue</t>
+  </si>
+  <si>
+    <t>维塔利娜·瓦雷拉维塔利娜·瓦雷拉/梦回里斯本(台)</t>
+  </si>
+  <si>
+    <t>奥罗拉公主奥罗拉公主/复仇公主</t>
+  </si>
+  <si>
+    <t>阙里人家Quelirenjia</t>
+  </si>
+  <si>
+    <t>野蛮地区野蛮地区/欲望号妖兽(港)</t>
+  </si>
+  <si>
+    <t>死者田园祭死者田园祭/死在田园</t>
+  </si>
+  <si>
+    <t>雷恩的女儿雷恩的女儿/碧海情天(港)</t>
+  </si>
+  <si>
+    <t>绿茶GreenTea</t>
+  </si>
+  <si>
+    <t>最伟大的最伟大的/温柔的爱</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>墨西哥/丹麦/法国/德国/挪威/瑞士</t>
+  </si>
+  <si>
+    <t>星尘星尘/魔幻星尘(港)</t>
+  </si>
+  <si>
+    <t>地球公民地球公民/地球上的众生</t>
+  </si>
+  <si>
+    <t>风再起时风再起时/全球通缉令</t>
+  </si>
+  <si>
+    <t>我的少年时代尘埃里开花—少年时代</t>
+  </si>
+  <si>
+    <t>宝藏猎人久美子宝藏猎人久美子/久美子的奇异旅程(台)</t>
+  </si>
+  <si>
+    <t>柯莱特柯莱特/科莱特</t>
+  </si>
+  <si>
+    <t>摇滚芭比摇滚芭比/海德薇格愤怒的寸茎</t>
+  </si>
+  <si>
+    <t>奇门遁甲奇门遁甲/六鬼灵童(台)</t>
+  </si>
+  <si>
+    <t>傻子亨利傻子亨利/傻瓜亨利</t>
+  </si>
+  <si>
+    <t>摩罗神摩罗神/帝国毁灭</t>
+  </si>
+  <si>
+    <t>甜蜜十六岁甜蜜十六岁/双失十六岁</t>
+  </si>
+  <si>
+    <t>木匠木匠/TheCarpenter</t>
+  </si>
+  <si>
+    <t>初级读本初级读本/ThePrimer</t>
+  </si>
+  <si>
+    <t>青木瓜之味青木瓜之味/番木瓜香</t>
+  </si>
+  <si>
+    <t>标准之外标准之外/特殊人生(港)</t>
+  </si>
+  <si>
+    <t>温蒂妮温蒂妮/乌丁娜</t>
+  </si>
+  <si>
+    <t>法国/德国/意大利/俄罗斯/日本</t>
+  </si>
+  <si>
+    <t>德国/西班牙/英国</t>
+  </si>
+  <si>
+    <t>越南/法国</t>
+  </si>
+  <si>
+    <t>法国/比利时</t>
+  </si>
+  <si>
+    <t>新星新星/新星h/x</t>
+  </si>
+  <si>
+    <t>狼屋狼屋/狼隐之家(港)</t>
+  </si>
+  <si>
+    <t>父与子父与子/父子迷情(台)</t>
+  </si>
+  <si>
+    <t>鬼屋</t>
+  </si>
+  <si>
+    <t>春潮SpringTide</t>
+  </si>
+  <si>
+    <t>南国再见，南国南国再见，南国/GoodbyeSouth,Goodbye</t>
+  </si>
+  <si>
+    <t>智利/德国</t>
+  </si>
+  <si>
+    <t>俄罗斯/德国/意大利/荷兰/法国</t>
+  </si>
+  <si>
+    <t>剧作层面牛逼到金光闪闪，包括所有配角在内的人物都写的太丰满了，小细节也十分到位，一些乍看无法理解的人物动机细想一番实则又极其合理；正面是奸杀悬案背后小镇人民的“以暴制暴”，背面是警民同心前赴后继共铲奸人的“欣欣向荣”，高潮一个接着一个最后又能以和风细雨般的笔调轻松收尾。妙不可言。</t>
+  </si>
+  <si>
+    <t>pirealwei</t>
+  </si>
+  <si>
+    <t>乌托邦乌托邦/美版乌托邦</t>
+  </si>
+  <si>
+    <t>纽瓦克众圣纽瓦克众圣/纽瓦克诸圣</t>
+  </si>
+  <si>
+    <t>紧急宣言紧急宣言/紧急声明</t>
+  </si>
+  <si>
+    <t>算牌人算牌人/牌桌</t>
+  </si>
+  <si>
+    <t>德州巡警德州巡警/德州骑警</t>
+  </si>
+  <si>
+    <t>恐惧之城：纽约黑帮覆灭录恐惧之城：纽约黑帮覆灭录/恐惧之城：纽约VS黑手党</t>
+  </si>
+  <si>
+    <t>江湖郎中江湖郎中/怪诞医生</t>
+  </si>
+  <si>
+    <t>黑暗物质三部曲第一季黑暗物质三部曲/黄金罗盘</t>
+  </si>
+  <si>
+    <t>一次别离一次别离/伊朗式分居(港)</t>
+  </si>
+  <si>
+    <t>街头霸王香蕉大电影街头霸王香蕉大电影</t>
+  </si>
+  <si>
+    <t>古宅老友记第一季古宅老友记/鬼屋欢乐送</t>
+  </si>
+  <si>
+    <t>我们的世界末日我们的世界末日/你，我与世界末日</t>
+  </si>
+  <si>
+    <t>发之恋发之恋/发之爱</t>
+  </si>
+  <si>
+    <t>大独裁者大独裁者/TheDictator</t>
+  </si>
+  <si>
+    <t>切腹剖腹</t>
+  </si>
+  <si>
+    <t>大地大地/Earth</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>真爱至上真爱至上/真的恋爱了(港)</t>
+  </si>
+  <si>
+    <t>叹息桥叹息桥/TheGutter</t>
+  </si>
+  <si>
+    <t>我和我的经纪人</t>
+  </si>
+  <si>
+    <t>侠盗石川侠盗石川/大盗五右卫门(港/台)</t>
+  </si>
+  <si>
+    <t>囧妈俄囧</t>
+  </si>
+  <si>
+    <t>九叔NinthUncle</t>
+  </si>
+  <si>
+    <t>创造营2020创造营第二季</t>
+  </si>
+  <si>
+    <t>英国/美国/法国</t>
+  </si>
+  <si>
+    <t>天劫余生天劫余生/浩劫余生</t>
+  </si>
+  <si>
+    <t>冬眠冬眠/冬日苏醒(港/台)</t>
+  </si>
+  <si>
+    <t>沉默的真相长夜难明</t>
+  </si>
+  <si>
+    <t>深水</t>
+  </si>
+  <si>
+    <t>大理寺日志WhiteCatLegend</t>
+  </si>
+  <si>
+    <t>谍海危情谍海危情/谎言的遗产</t>
+  </si>
+  <si>
+    <t>南山的部长们南山的部长们/TheManStandingNext</t>
+  </si>
+  <si>
+    <t>红眼航班红眼航班/红眼</t>
+  </si>
+  <si>
+    <t>欧洲歌唱大赛：火焰传说</t>
+  </si>
+  <si>
+    <t>土耳其/法国/德国</t>
+  </si>
+  <si>
+    <t>荷兰/英国/波兰/乌克兰/美国</t>
+  </si>
+  <si>
+    <t>翻译疑云翻译疑云/叛译同谋(港)</t>
+  </si>
+  <si>
+    <t>真正的侦探</t>
+  </si>
+  <si>
+    <t>袅袅夕阳情袅袅夕阳情/一代鲜师</t>
+  </si>
+  <si>
+    <t>我只希望你们爱我我只希望你们爱我/我只希望你爱我</t>
+  </si>
+  <si>
+    <t>误杀误杀瞒天记中国版</t>
+  </si>
+  <si>
+    <t>极地暗杀第一季极地暗杀/头</t>
+  </si>
+  <si>
+    <t>定义定义：就是打破别人的定义</t>
+  </si>
+  <si>
+    <t>柳巷芳草柳巷芳草/花街杀人王</t>
+  </si>
+  <si>
+    <t>西德</t>
+  </si>
+  <si>
+    <t>列夫·朗道：娜塔莎列夫·朗道：娜塔莎/Дау.Наташа</t>
+  </si>
+  <si>
+    <t>真相真相/真实芳言(港)</t>
+  </si>
+  <si>
+    <t>跳出我天地跳出我天地/舞动人生(港)</t>
+  </si>
+  <si>
+    <t>德国/乌克兰/英国/俄罗斯</t>
+  </si>
+  <si>
+    <t>法国/日本</t>
+  </si>
+  <si>
+    <t>女人韵事女人韵事/女人情事</t>
+  </si>
+  <si>
+    <t>角落小伙伴：魔法绘本里的新朋友角落小伙伴：魔法绘本里的新朋友/剧场版角落小伙伴魔法绘本里的新朋友(港)</t>
+  </si>
+  <si>
+    <t>顶缸Scapegoat</t>
+  </si>
+  <si>
+    <t>下女下女/Hanyo</t>
+  </si>
+  <si>
+    <t>Düsseldorf, Germany</t>
+  </si>
+  <si>
+    <t>我失去了身体我失去了身体/只手探险(台)</t>
+  </si>
+  <si>
+    <t>大卫·林奇：艺术人生大卫·林奇：艺术人生/大卫连治艺术人生(港)</t>
+  </si>
+  <si>
+    <t>家庭罗曼史有限公司</t>
+  </si>
+  <si>
+    <t>深闺疑云深闺疑云/断崖</t>
+  </si>
+  <si>
+    <t>淘金记淘金记/淘金热</t>
+  </si>
+  <si>
+    <t>超级巨星卡朋特超级巨星卡朋特/超级明星：卡伦卡朋特的故事</t>
+  </si>
+  <si>
+    <t>追逐快乐追逐快乐/AndthePursuitofHappiness</t>
+  </si>
+  <si>
+    <t>地方英雄地方英雄/小镇风波</t>
+  </si>
+  <si>
+    <t>地球是蓝色的就像个橙子</t>
+  </si>
+  <si>
+    <t>贡达</t>
+  </si>
+  <si>
+    <t>如何变成鸟如何变成鸟/Birds(OrHowtoBeOne)</t>
+  </si>
+  <si>
+    <t>竖笛考试竖笛考试/TheRecorderExam</t>
+  </si>
+  <si>
+    <t>汉娜·盖茨比：道格拉斯</t>
+  </si>
+  <si>
+    <t>偷马贼：时间之路偷马贼：时间之路/HorseThieves</t>
+  </si>
+  <si>
+    <t>在13000英尺高的安妮</t>
+  </si>
+  <si>
+    <t>乌克兰/立陶宛</t>
+  </si>
+  <si>
+    <t>挪威/美国</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>日本/哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>你的孩子不是你的孩子OnChildren</t>
+  </si>
+  <si>
+    <t>新喋喋人生新喋喋人生/喋喋人生重启版</t>
+  </si>
+  <si>
+    <t>新阴阳魔界第二季新阴阳魔界/迷离时空</t>
+  </si>
+  <si>
+    <t>华盛顿邮报华盛顿邮报/战云密报(港)</t>
+  </si>
+  <si>
+    <t>棕榈泉棕榈泉/棕榈泉不思议(台)</t>
+  </si>
+  <si>
+    <t>普拉吉布雷劳普拉吉布雷劳/古城绝刑(港)</t>
+  </si>
+  <si>
+    <t>平原上的摩西</t>
+  </si>
+  <si>
+    <t>失衡生活失衡生活</t>
+  </si>
+  <si>
+    <t>极限职业极限职业/炸鸡特攻队(港)</t>
+  </si>
+  <si>
+    <t>东北虎ManchurianTiger</t>
+  </si>
+  <si>
+    <t>妖猫传沙门空海</t>
+  </si>
+  <si>
+    <t>岁月风云之上海皇帝岁月风云之上海皇帝/LordofEastChinaSea</t>
+  </si>
+  <si>
+    <t>致命魔术致命魔术/顶尖对决(台)</t>
+  </si>
+  <si>
+    <t>理查德·朱维尔的哀歌理查德·朱维尔的哀歌/李察朱维尔：惊世疑案(港)</t>
+  </si>
+  <si>
+    <t>2018-03-08</t>
+  </si>
+  <si>
+    <t>三块广告牌是招牌，三封遗信才是干货，于是也就透出了一种虽然极富技巧性却也极具投机性的机灵。</t>
+  </si>
+  <si>
+    <t>La Habana, Cuba</t>
+  </si>
+  <si>
+    <t>Zizou_Vam</t>
+  </si>
+  <si>
+    <t>独一无二的伊万独一无二的伊万/独一无二的伊凡</t>
+  </si>
+  <si>
+    <t>洞TheHole</t>
+  </si>
+  <si>
+    <t>下棋者下棋者/棋手</t>
+  </si>
+  <si>
+    <t>士兵之父士兵之父/一个士兵的父亲</t>
+  </si>
+  <si>
+    <t>无法松的一生无法松的一生/手车夫之恋(港)</t>
+  </si>
+  <si>
+    <t>98古惑仔之龙争虎斗98古惑仔之龙争虎斗/YoungandDangerous5</t>
+  </si>
+  <si>
+    <t>魔鬼的恶作剧魔鬼的恶作剧/TheMerryFrolicsofSatan</t>
+  </si>
+  <si>
+    <t>间谍亚契第七季</t>
+  </si>
+  <si>
+    <t>红色的梦红色的梦/独轮车的梦想</t>
+  </si>
+  <si>
+    <t>玫瑰玫瑰我爱你RoseRoseILoveYou</t>
+  </si>
+  <si>
+    <t>猎梦特工猎梦特工/DreamRaider</t>
+  </si>
+  <si>
+    <t>陌生之物陌生之物/陌生</t>
+  </si>
+  <si>
+    <t>灰色人灰色人/灰人</t>
+  </si>
+  <si>
+    <t>新愚公移山</t>
+  </si>
+  <si>
+    <t>杀戮天眼杀戮天眼/意志</t>
+  </si>
+  <si>
+    <t>血船</t>
+  </si>
+  <si>
+    <t>诈欺游戏电影版诈欺游戏电影版/欺诈游戏(港)</t>
+  </si>
+  <si>
+    <t>错位Dislocation</t>
+  </si>
+  <si>
+    <t>夜光《南方车站的聚会》电影幕后纪录片</t>
+  </si>
+  <si>
+    <t>牛奶的五种表达方式FiveWaystoExpressMilk</t>
+  </si>
+  <si>
+    <t>两生花两生花/薇洛妮卡的双重生活</t>
+  </si>
+  <si>
+    <t>丈夫、太太与情人丈夫、太太与情人/贤伉俪</t>
+  </si>
+  <si>
+    <t>藏历一年藏历一年/AYearinTibet</t>
+  </si>
+  <si>
+    <t>法国/波兰/挪威</t>
+  </si>
+  <si>
+    <t>一路向东一路向东/赖婚</t>
+  </si>
+  <si>
+    <t>水俣曼荼罗</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>原野神驹原野神驹/游侠西征(港)</t>
+  </si>
+  <si>
+    <t>漂亮的塞尔吉漂亮的塞尔吉/美男子沙治(港)</t>
+  </si>
+  <si>
+    <t>火和雨</t>
+  </si>
+  <si>
+    <t>奧地利</t>
+  </si>
+  <si>
+    <t>零零零第一季零零零/Zero,Zero,Zero</t>
+  </si>
+  <si>
+    <t>夏日痴魂夏日痴魂/去年夏天</t>
+  </si>
+  <si>
+    <t>英雄虎胆IntrepidHero</t>
+  </si>
+  <si>
+    <t>足球英杰足球英杰/英足时代(台)</t>
+  </si>
+  <si>
+    <t>外贝加尔外贝加尔/Dauriya</t>
+  </si>
+  <si>
+    <t>双面生活双面生活/纯属虚构(港)</t>
+  </si>
+  <si>
+    <t>必要的杀戮必要的杀戮/我不要死(台)</t>
+  </si>
+  <si>
+    <t>暴力小姐</t>
+  </si>
+  <si>
+    <t>波兰/挪威/爱尔兰/匈牙利</t>
   </si>
 </sst>
 </file>
@@ -3117,11 +5301,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3405,15 +5594,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:Z184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.15">
@@ -9668,6 +11857,7466 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U86" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="V86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W86" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="X86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z86" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U88" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="V88" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z88" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W89" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y89" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z89" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="W90" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X90" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Y90" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="Z90" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U91" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z91" s="2" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z92" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="U93" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="V93" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="W93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z93" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W94" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="X94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z94" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U95" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="V95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W95" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y95" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z95" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="V96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z96" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="V97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W97" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="X97" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z97" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U98" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="V98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z98" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S99" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z99" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R100" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U100" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W100" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="X100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z100" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z101" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="R102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="U102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z102" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="R103" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="S103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T103" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V103" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W103" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X103" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="Y103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z103" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="Q104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R104" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S104" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T104" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="U104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W104" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y104" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Z104" s="2" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="Q105" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="R105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U105" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="V105" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="W105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y105" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Z105" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R106" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V106" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X106" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y106" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z106" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z107" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="R108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U108" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W108" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="X108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y108" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z108" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R109" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U109" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W109" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="X109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y109" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z109" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T112" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U112" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="V112" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="W112" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z112" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="Q113" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="R113" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="S113" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="T113" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="U113" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="V113" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W113" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="X113" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y113" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z113" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R114" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U114" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V114" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W114" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X114" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y114" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z114" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U115" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V115" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X115" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y115" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z115" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U116" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y116" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z116" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
+      <c r="Z117" s="2"/>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q118" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="S118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T118" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="U118" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="V118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X118" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z118" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R119" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S119" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T119" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="U119" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V119" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W119" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="X119" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y119" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z119" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S120" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="T120" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="U120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V120" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W120" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X120" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="Y120" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z120" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R121" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S121" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V121" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W121" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="X121" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y121" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z121" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="P122" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Q122" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="R122" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="S122" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T122" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U122" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V122" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W122" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="X122" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y122" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="Z122" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="P123" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="Q123" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="T123" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U123" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W123" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y123" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z123" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="P124" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q124" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="R124" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S124" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="T124" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="U124" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V124" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W124" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X124" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y124" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z124" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="P125" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="Q125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R125" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S125" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T125" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="U125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W125" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y125" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="Z125" s="2" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="Q126" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R126" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S126" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="T126" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U126" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V126" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W126" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X126" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y126" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z126" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T127" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U127" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V127" s="2"/>
+      <c r="W127" s="2"/>
+      <c r="X127" s="2"/>
+      <c r="Y127" s="2"/>
+      <c r="Z127" s="2"/>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R128" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S128" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="T128" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U128" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V128" s="2"/>
+      <c r="W128" s="2"/>
+      <c r="X128" s="2"/>
+      <c r="Y128" s="2"/>
+      <c r="Z128" s="2"/>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R129" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V129" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="W129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z129" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="P130" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="Q130" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R130" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S130" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="T130" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U130" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V130" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="W130" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X130" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y130" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z130" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="2"/>
+      <c r="V131" s="2"/>
+      <c r="W131" s="2"/>
+      <c r="X131" s="2"/>
+      <c r="Y131" s="2"/>
+      <c r="Z131" s="2"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S132" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U132" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V132" s="2"/>
+      <c r="W132" s="2"/>
+      <c r="X132" s="2"/>
+      <c r="Y132" s="2"/>
+      <c r="Z132" s="2"/>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="P133" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="Q133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S133" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="T133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U133" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V133" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="W133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X133" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y133" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z133" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="N134" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O134" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="P134" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S134" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="T134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U134" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X134" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y134" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z134" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="O135" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="P135" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="Q135" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R135" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S135" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="T135" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="U135" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V135" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W135" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X135" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y135" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="Z135" s="2" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="P136" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="Q136" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S136" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U136" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W136" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="X136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y136" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z136" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="N137" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="P137" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="Q137" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R137" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S137" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T137" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U137" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V137" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="W137" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X137" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="Y137" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z137" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R138" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S138" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U138" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="V138" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W138" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X138" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="Y138" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z138" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="P139" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Q139" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R139" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S139" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T139" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U139" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="V139" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W139" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X139" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y139" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z139" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R140" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="S140" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V140" s="2"/>
+      <c r="W140" s="2"/>
+      <c r="X140" s="2"/>
+      <c r="Y140" s="2"/>
+      <c r="Z140" s="2"/>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="N141" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="P141" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="Q141" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="R141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U141" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="V141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X141" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Y141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z141" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O142" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="P142" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="Q142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S142" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="T142" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="U142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V142" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="W142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X142" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="Y142" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="Z142" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="O143" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="P143" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q143" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="R143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T143" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="U143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V143" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="W143" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X143" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y143" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z143" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="P144" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q144" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="R144" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S144" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="T144" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="U144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W144" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="X144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z144" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="P145" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="Q145" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="R145" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="S145" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="T145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X145" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="Y145" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z145" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2"/>
+      <c r="V146" s="2"/>
+      <c r="W146" s="2"/>
+      <c r="X146" s="2"/>
+      <c r="Y146" s="2"/>
+      <c r="Z146" s="2"/>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="P147" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q147" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R147" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S147" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T147" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U147" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V147" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W147" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="X147" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y147" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z147" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="P148" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="Q148" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R148" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S148" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U148" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="V148" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X148" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Y148" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z148" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N149" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="P149" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="Q149" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R149" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S149" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="T149" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="U149" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V149" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="W149" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="X149" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y149" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z149" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="P150" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="Q150" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="R150" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S150" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T150" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U150" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V150" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W150" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="X150" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y150" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z150" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
+      <c r="U151" s="2"/>
+      <c r="V151" s="2"/>
+      <c r="W151" s="2"/>
+      <c r="X151" s="2"/>
+      <c r="Y151" s="2"/>
+      <c r="Z151" s="2"/>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="N152" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="P152" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q152" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="R152" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S152" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="T152" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="U152" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V152" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W152" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="X152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y152" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z152" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A153" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="N153" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="P153" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="Q153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T153" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U153" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V153" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W153" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X153" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y153" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z153" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="N154" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="P154" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Q154" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="R154" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="S154" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T154" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U154" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V154" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W154" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="X154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y154" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="Z154" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N155" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="P155" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q155" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R155" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W155" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="X155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y155" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Z155" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="P156" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="Q156" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="R156" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S156" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="T156" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U156" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V156" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="W156" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X156" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y156" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z156" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="N157" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O157" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P157" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="Q157" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="R157" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S157" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T157" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U157" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V157" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W157" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X157" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y157" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z157" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="N158" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="P158" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="Q158" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R158" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S158" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T158" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="U158" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="V158" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="W158" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="X158" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="Y158" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="Z158" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="N159" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="P159" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="Q159" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R159" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="S159" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="T159" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="U159" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V159" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W159" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="X159" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y159" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z159" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L160" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="N160" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="P160" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="Q160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S160" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X160" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y160" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z160" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A161" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="N161" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="P161" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R161" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S161" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="T161" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U161" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V161" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X161" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y161" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z161" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="N162" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="O162" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="P162" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="Q162" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R162" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S162" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="T162" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U162" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V162" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W162" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X162" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y162" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z162" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A163" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R163" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S163" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T163" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U163" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V163" s="2"/>
+      <c r="W163" s="2"/>
+      <c r="X163" s="2"/>
+      <c r="Y163" s="2"/>
+      <c r="Z163" s="2"/>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A164" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M164" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="N164" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="O164" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="P164" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Q164" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R164" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="S164" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T164" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U164" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V164" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W164" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X164" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y164" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z164" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A165" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="M165" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="N165" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="O165" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="P165" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="Q165" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R165" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="S165" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T165" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U165" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V165" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W165" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="X165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y165" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z165" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A166" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="M166" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="N166" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="O166" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="P166" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="Q166" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R166" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="S166" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="T166" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="U166" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V166" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W166" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="X166" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y166" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z166" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="N167" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="O167" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="P167" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="Q167" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="R167" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S167" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T167" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="U167" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="V167" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W167" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="X167" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y167" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z167" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A168" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="N168" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="O168" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="P168" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="Q168" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R168" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="S168" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T168" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U168" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V168" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W168" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="X168" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y168" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z168" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R169" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="S169" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="T169" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U169" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V169" s="2"/>
+      <c r="W169" s="2"/>
+      <c r="X169" s="2"/>
+      <c r="Y169" s="2"/>
+      <c r="Z169" s="2"/>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="L170" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="M170" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N170" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="O170" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="P170" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q170" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="R170" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="S170" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T170" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U170" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V170" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W170" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X170" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="Y170" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z170" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="L171" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="M171" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="N171" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O171" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P171" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="Q171" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R171" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S171" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T171" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="U171" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V171" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W171" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X171" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y171" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z171" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A172" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="L172" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="M172" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N172" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="O172" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="P172" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q172" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="R172" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S172" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T172" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="U172" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V172" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="W172" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X172" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y172" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z172" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+      <c r="U173" s="2"/>
+      <c r="V173" s="2"/>
+      <c r="W173" s="2"/>
+      <c r="X173" s="2"/>
+      <c r="Y173" s="2"/>
+      <c r="Z173" s="2"/>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A174" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="M174" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="N174" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="O174" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="P174" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="Q174" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R174" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="S174" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="T174" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U174" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V174" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W174" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X174" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y174" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z174" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2"/>
+      <c r="V175" s="2"/>
+      <c r="W175" s="2"/>
+      <c r="X175" s="2"/>
+      <c r="Y175" s="2"/>
+      <c r="Z175" s="2"/>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A176" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="L176" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M176" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="N176" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="O176" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="P176" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Q176" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R176" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="S176" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T176" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U176" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V176" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W176" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X176" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y176" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z176" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A177" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M177" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="N177" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="O177" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P177" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="Q177" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R177" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S177" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="T177" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="U177" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="V177" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="W177" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X177" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y177" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="Z177" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A178" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="L178" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="M178" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="N178" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="O178" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="P178" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="Q178" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R178" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S178" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T178" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U178" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="V178" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W178" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X178" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y178" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z178" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A179" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="M179" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N179" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="O179" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="P179" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="Q179" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R179" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="S179" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T179" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U179" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V179" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="W179" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X179" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y179" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z179" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A180" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L180" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="M180" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="N180" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="O180" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="P180" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="Q180" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R180" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="S180" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T180" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U180" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V180" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W180" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="X180" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y180" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z180" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A181" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="M181" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N181" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="O181" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="P181" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="Q181" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R181" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S181" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T181" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U181" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V181" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="W181" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X181" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y181" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z181" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A182" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="L182" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="M182" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N182" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="O182" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="P182" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="Q182" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R182" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S182" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T182" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="U182" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V182" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W182" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X182" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y182" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z182" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A183" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="M183" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="N183" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="O183" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="P183" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="Q183" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R183" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S183" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="T183" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U183" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V183" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="W183" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="X183" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y183" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="Z183" s="2" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A184" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="L184" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="M184" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="N184" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="O184" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="P184" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q184" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="R184" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S184" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T184" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U184" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V184" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W184" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X184" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y184" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="Z184" s="2" t="s">
+        <v>1683</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
